--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.176084</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H2">
-        <v>0.5282520000000001</v>
+        <v>1.369276</v>
       </c>
       <c r="I2">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J2">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N2">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O2">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P2">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q2">
-        <v>0.04497866218133333</v>
+        <v>0.4231035454480001</v>
       </c>
       <c r="R2">
-        <v>0.4048079596320001</v>
+        <v>3.807931909032</v>
       </c>
       <c r="S2">
-        <v>2.009218265635608E-06</v>
+        <v>2.38398412924096E-05</v>
       </c>
       <c r="T2">
-        <v>2.009218265635608E-06</v>
+        <v>2.38398412924096E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.176084</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H3">
-        <v>0.5282520000000001</v>
+        <v>1.369276</v>
       </c>
       <c r="I3">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J3">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N3">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O3">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P3">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q3">
-        <v>8.847207695274669</v>
+        <v>42.50511229952578</v>
       </c>
       <c r="R3">
-        <v>79.62486925747201</v>
+        <v>382.546010695732</v>
       </c>
       <c r="S3">
-        <v>0.0003952089821958958</v>
+        <v>0.00239495778808424</v>
       </c>
       <c r="T3">
-        <v>0.0003952089821958958</v>
+        <v>0.00239495778808424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.176084</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H4">
-        <v>0.5282520000000001</v>
+        <v>1.369276</v>
       </c>
       <c r="I4">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J4">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N4">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O4">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P4">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q4">
-        <v>45.34064662955467</v>
+        <v>120.9507934562396</v>
       </c>
       <c r="R4">
-        <v>408.065819665992</v>
+        <v>1088.557141106156</v>
       </c>
       <c r="S4">
-        <v>0.002025388283372245</v>
+        <v>0.006814993046523984</v>
       </c>
       <c r="T4">
-        <v>0.002025388283372245</v>
+        <v>0.006814993046523984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.176084</v>
+        <v>0.4564253333333334</v>
       </c>
       <c r="H5">
-        <v>0.5282520000000001</v>
+        <v>1.369276</v>
       </c>
       <c r="I5">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="J5">
-        <v>0.002540394622276418</v>
+        <v>0.009290313076622009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N5">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O5">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P5">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q5">
-        <v>2.636822976673333</v>
+        <v>1.003145442501778</v>
       </c>
       <c r="R5">
-        <v>23.73140679006</v>
+        <v>9.028308982516</v>
       </c>
       <c r="S5">
-        <v>0.000117788138442642</v>
+        <v>5.652240072137506E-05</v>
       </c>
       <c r="T5">
-        <v>0.000117788138442642</v>
+        <v>5.652240072137506E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>36.102162</v>
       </c>
       <c r="I6">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J6">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N6">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O6">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P6">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q6">
-        <v>3.073962708354666</v>
+        <v>11.155495853676</v>
       </c>
       <c r="R6">
-        <v>27.665664375192</v>
+        <v>100.399462683084</v>
       </c>
       <c r="S6">
-        <v>0.0001373153784923403</v>
+        <v>0.0006285583128550128</v>
       </c>
       <c r="T6">
-        <v>0.0001373153784923403</v>
+        <v>0.0006285583128550129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>36.102162</v>
       </c>
       <c r="I7">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J7">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N7">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O7">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P7">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q7">
-        <v>604.6419615305814</v>
+        <v>1120.684544288859</v>
       </c>
       <c r="R7">
-        <v>5441.777653775232</v>
+        <v>10086.16089859973</v>
       </c>
       <c r="S7">
-        <v>0.02700964444827723</v>
+        <v>0.0631451614200343</v>
       </c>
       <c r="T7">
-        <v>0.02700964444827723</v>
+        <v>0.06314516142003432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.102162</v>
       </c>
       <c r="I8">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J8">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N8">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O8">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P8">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q8">
-        <v>3098.701698819761</v>
+        <v>3188.973690757524</v>
       </c>
       <c r="R8">
-        <v>27888.31528937785</v>
+        <v>28700.76321681772</v>
       </c>
       <c r="S8">
-        <v>0.1384204809810596</v>
+        <v>0.1796832654588866</v>
       </c>
       <c r="T8">
-        <v>0.1384204809810596</v>
+        <v>0.1796832654588866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.102162</v>
       </c>
       <c r="I9">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="J9">
-        <v>0.1736173988879399</v>
+        <v>0.2449472478323772</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N9">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O9">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P9">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q9">
-        <v>180.2075718959566</v>
+        <v>26.44880891417133</v>
       </c>
       <c r="R9">
-        <v>1621.86814706361</v>
+        <v>238.039280227542</v>
       </c>
       <c r="S9">
-        <v>0.008049958080110796</v>
+        <v>0.00149026264060131</v>
       </c>
       <c r="T9">
-        <v>0.008049958080110798</v>
+        <v>0.00149026264060131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.40023333333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H10">
-        <v>43.2007</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I10">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J10">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N10">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O10">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P10">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q10">
-        <v>3.678376402355555</v>
+        <v>18.842435082702</v>
       </c>
       <c r="R10">
-        <v>33.10538762119999</v>
+        <v>169.581915744318</v>
       </c>
       <c r="S10">
-        <v>0.0001643148261213289</v>
+        <v>0.001061680212248077</v>
       </c>
       <c r="T10">
-        <v>0.0001643148261213289</v>
+        <v>0.001061680212248077</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.40023333333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H11">
-        <v>43.2007</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I11">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J11">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N11">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O11">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P11">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q11">
-        <v>723.5288564572445</v>
+        <v>1892.916823324527</v>
       </c>
       <c r="R11">
-        <v>6511.759708115201</v>
+        <v>17036.25140992074</v>
       </c>
       <c r="S11">
-        <v>0.03232037867750663</v>
+        <v>0.1066567206379863</v>
       </c>
       <c r="T11">
-        <v>0.03232037867750662</v>
+        <v>0.1066567206379863</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.40023333333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H12">
-        <v>43.2007</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I12">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J12">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N12">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O12">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P12">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q12">
-        <v>3707.979662830244</v>
+        <v>5386.405995457641</v>
       </c>
       <c r="R12">
-        <v>33371.8169654722</v>
+        <v>48477.65395911877</v>
       </c>
       <c r="S12">
-        <v>0.165637217868516</v>
+        <v>0.3034979627320935</v>
       </c>
       <c r="T12">
-        <v>0.165637217868516</v>
+        <v>0.3034979627320935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.40023333333333</v>
+        <v>20.326383</v>
       </c>
       <c r="H13">
-        <v>43.2007</v>
+        <v>60.97914900000001</v>
       </c>
       <c r="I13">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="J13">
-        <v>0.207754681399364</v>
+        <v>0.4137335243997426</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N13">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O13">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P13">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q13">
-        <v>215.6406381203889</v>
+        <v>44.673941124351</v>
       </c>
       <c r="R13">
-        <v>1940.7657430835</v>
+        <v>402.065470119159</v>
       </c>
       <c r="S13">
-        <v>0.009632770027220044</v>
+        <v>0.002517160817414778</v>
       </c>
       <c r="T13">
-        <v>0.009632770027220046</v>
+        <v>0.002517160817414778</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.02875833333333</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H14">
-        <v>51.086275</v>
+        <v>5.903761</v>
       </c>
       <c r="I14">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J14">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N14">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O14">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P14">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q14">
-        <v>4.349803323655555</v>
+        <v>1.824250341478</v>
       </c>
       <c r="R14">
-        <v>39.1482299129</v>
+        <v>16.418253073302</v>
       </c>
       <c r="S14">
-        <v>0.0001943077865361299</v>
+        <v>0.0001027876960293742</v>
       </c>
       <c r="T14">
-        <v>0.00019430778653613</v>
+        <v>0.0001027876960293742</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.02875833333333</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H15">
-        <v>51.086275</v>
+        <v>5.903761</v>
       </c>
       <c r="I15">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J15">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N15">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O15">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P15">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q15">
-        <v>855.5971114220445</v>
+        <v>183.2647503458475</v>
       </c>
       <c r="R15">
-        <v>7700.374002798401</v>
+        <v>1649.382753112627</v>
       </c>
       <c r="S15">
-        <v>0.03821993053870053</v>
+        <v>0.01032608355505975</v>
       </c>
       <c r="T15">
-        <v>0.03821993053870053</v>
+        <v>0.01032608355505975</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.02875833333333</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H16">
-        <v>51.086275</v>
+        <v>5.903761</v>
       </c>
       <c r="I16">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J16">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N16">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O16">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P16">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q16">
-        <v>4384.810170894294</v>
+        <v>521.490610604438</v>
       </c>
       <c r="R16">
-        <v>39463.29153804865</v>
+        <v>4693.415495439941</v>
       </c>
       <c r="S16">
-        <v>0.195871559078115</v>
+        <v>0.02938347722689909</v>
       </c>
       <c r="T16">
-        <v>0.195871559078115</v>
+        <v>0.02938347722689909</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.02875833333333</v>
+        <v>1.967920333333333</v>
       </c>
       <c r="H17">
-        <v>51.086275</v>
+        <v>5.903761</v>
       </c>
       <c r="I17">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="J17">
-        <v>0.2456768706642553</v>
+        <v>0.04005605007284947</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N17">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O17">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P17">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q17">
-        <v>255.0022786712639</v>
+        <v>4.325155002183444</v>
       </c>
       <c r="R17">
-        <v>2295.020508041375</v>
+        <v>38.926395019651</v>
       </c>
       <c r="S17">
-        <v>0.01139107326090366</v>
+        <v>0.0002437015948612449</v>
       </c>
       <c r="T17">
-        <v>0.01139107326090366</v>
+        <v>0.0002437015948612449</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.476923</v>
+        <v>2.948245666666667</v>
       </c>
       <c r="H18">
-        <v>16.430769</v>
+        <v>8.844737</v>
       </c>
       <c r="I18">
-        <v>0.07901652470310776</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="J18">
-        <v>0.07901652470310774</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N18">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O18">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P18">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q18">
-        <v>1.399017908556</v>
+        <v>2.733006043526</v>
       </c>
       <c r="R18">
-        <v>12.591161177004</v>
+        <v>24.597054391734</v>
       </c>
       <c r="S18">
-        <v>6.249479641012115E-05</v>
+        <v>0.0001539916907570884</v>
       </c>
       <c r="T18">
-        <v>6.249479641012115E-05</v>
+        <v>0.0001539916907570884</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.476923</v>
+        <v>2.948245666666667</v>
       </c>
       <c r="H19">
-        <v>16.430769</v>
+        <v>8.844737</v>
       </c>
       <c r="I19">
-        <v>0.07901652470310776</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="J19">
-        <v>0.07901652470310774</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N19">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O19">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P19">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q19">
-        <v>275.183862883776</v>
+        <v>274.5586276578066</v>
       </c>
       <c r="R19">
-        <v>2476.654765953985</v>
+        <v>2471.027648920259</v>
       </c>
       <c r="S19">
-        <v>0.01229259424135806</v>
+        <v>0.01547005261299171</v>
       </c>
       <c r="T19">
-        <v>0.01229259424135805</v>
+        <v>0.01547005261299171</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.476923</v>
+        <v>2.948245666666667</v>
       </c>
       <c r="H20">
-        <v>16.430769</v>
+        <v>8.844737</v>
       </c>
       <c r="I20">
-        <v>0.07901652470310776</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="J20">
-        <v>0.07901652470310774</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N20">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O20">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P20">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q20">
-        <v>1410.277085710686</v>
+        <v>781.2727003626441</v>
       </c>
       <c r="R20">
-        <v>12692.49377139618</v>
+        <v>7031.454303263797</v>
       </c>
       <c r="S20">
-        <v>0.06299774921703258</v>
+        <v>0.04402094329655482</v>
       </c>
       <c r="T20">
-        <v>0.06299774921703256</v>
+        <v>0.04402094329655482</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.476923</v>
+        <v>2.948245666666667</v>
       </c>
       <c r="H21">
-        <v>16.430769</v>
+        <v>8.844737</v>
       </c>
       <c r="I21">
-        <v>0.07901652470310776</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="J21">
-        <v>0.07901652470310774</v>
+        <v>0.06001008986528831</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N21">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O21">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P21">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q21">
-        <v>82.01583566860501</v>
+        <v>6.479743756318555</v>
       </c>
       <c r="R21">
-        <v>738.1425210174451</v>
+        <v>58.317693806867</v>
       </c>
       <c r="S21">
-        <v>0.003663686448307002</v>
+        <v>0.0003651022649846873</v>
       </c>
       <c r="T21">
-        <v>0.003663686448307002</v>
+        <v>0.0003651022649846873</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.197588</v>
+        <v>11.39613766666667</v>
       </c>
       <c r="H22">
-        <v>60.592764</v>
+        <v>34.188413</v>
       </c>
       <c r="I22">
-        <v>0.2913941297230567</v>
+        <v>0.2319627747531205</v>
       </c>
       <c r="J22">
-        <v>0.2913941297230566</v>
+        <v>0.2319627747531205</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N22">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O22">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P22">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q22">
-        <v>5.159244948602666</v>
+        <v>10.564151240174</v>
       </c>
       <c r="R22">
-        <v>46.433204537424</v>
+        <v>95.07736116156599</v>
       </c>
       <c r="S22">
-        <v>0.0002304659295074088</v>
+        <v>0.0005952388999437316</v>
       </c>
       <c r="T22">
-        <v>0.0002304659295074088</v>
+        <v>0.0005952388999437315</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.197588</v>
+        <v>11.39613766666667</v>
       </c>
       <c r="H23">
-        <v>60.592764</v>
+        <v>34.188413</v>
       </c>
       <c r="I23">
-        <v>0.2913941297230567</v>
+        <v>0.2319627747531205</v>
       </c>
       <c r="J23">
-        <v>0.2913941297230566</v>
+        <v>0.2319627747531205</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N23">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O23">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P23">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q23">
-        <v>1014.812566613589</v>
+        <v>1061.277882550755</v>
       </c>
       <c r="R23">
-        <v>9133.313099522305</v>
+        <v>9551.500942956791</v>
       </c>
       <c r="S23">
-        <v>0.04533216076583924</v>
+        <v>0.05979788295171351</v>
       </c>
       <c r="T23">
-        <v>0.04533216076583924</v>
+        <v>0.0597978829517135</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.197588</v>
+        <v>11.39613766666667</v>
       </c>
       <c r="H24">
-        <v>60.592764</v>
+        <v>34.188413</v>
       </c>
       <c r="I24">
-        <v>0.2913941297230567</v>
+        <v>0.2319627747531205</v>
       </c>
       <c r="J24">
-        <v>0.2913941297230566</v>
+        <v>0.2319627747531205</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N24">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O24">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P24">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q24">
-        <v>5200.766113203549</v>
+        <v>3019.928545712928</v>
       </c>
       <c r="R24">
-        <v>46806.89501883194</v>
+        <v>27179.35691141635</v>
       </c>
       <c r="S24">
-        <v>0.2323206997091152</v>
+        <v>0.1701583879851032</v>
       </c>
       <c r="T24">
-        <v>0.2323206997091152</v>
+        <v>0.1701583879851032</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.197588</v>
+        <v>11.39613766666667</v>
       </c>
       <c r="H25">
-        <v>60.592764</v>
+        <v>34.188413</v>
       </c>
       <c r="I25">
-        <v>0.2913941297230567</v>
+        <v>0.2319627747531205</v>
       </c>
       <c r="J25">
-        <v>0.2913941297230566</v>
+        <v>0.2319627747531205</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N25">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O25">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P25">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q25">
-        <v>302.4548744450466</v>
+        <v>25.04677704664255</v>
       </c>
       <c r="R25">
-        <v>2722.09387000542</v>
+        <v>225.4209934197829</v>
       </c>
       <c r="S25">
-        <v>0.01351080331859479</v>
+        <v>0.001411264916360082</v>
       </c>
       <c r="T25">
-        <v>0.01351080331859479</v>
+        <v>0.001411264916360082</v>
       </c>
     </row>
   </sheetData>
